--- a/Exercicios/ExercicioPrimalDualAula9.xlsx
+++ b/Exercicios/ExercicioPrimalDualAula9.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Pessoas\Bruno.Araujo\CDN_OCAN\Exercicios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6921405F-B40F-4710-A185-DDF1EB292D90}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D463E5FC-90F6-4171-AFC6-F213A8DBA372}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9204" activeTab="1" xr2:uid="{A6E17CEE-8874-4958-86EE-43139663E80C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9204" activeTab="5" xr2:uid="{A6E17CEE-8874-4958-86EE-43139663E80C}"/>
   </bookViews>
   <sheets>
     <sheet name="Exemplo 1" sheetId="2" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="EXERCICIO 1" sheetId="3" r:id="rId3"/>
     <sheet name="EXERCICIO 2" sheetId="4" r:id="rId4"/>
     <sheet name="EXERCICIO 3B" sheetId="5" r:id="rId5"/>
+    <sheet name="LA EXER 4" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="132">
   <si>
     <t>BASE</t>
   </si>
@@ -401,12 +402,48 @@
   <si>
     <t>L=925,3571</t>
   </si>
+  <si>
+    <t>4) Determine os valores do primal e do dual dos modelos a seguir utilizando o algoritmo simplex:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                   y ≤ 3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                   x, y ≥ 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Restrições: x + y ≤ 6  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                   5x + 9y ≤ 45 </t>
+  </si>
+  <si>
+    <t>y = 3,75</t>
+  </si>
+  <si>
+    <t>Max Z = 5x + 8y</t>
+  </si>
+  <si>
+    <t>x = 3</t>
+  </si>
+  <si>
+    <t>L = 39</t>
+  </si>
+  <si>
+    <t>F1 = 5</t>
+  </si>
+  <si>
+    <t>F2 = 0</t>
+  </si>
+  <si>
+    <t>F3 = 3</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -452,6 +489,13 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -501,7 +545,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -526,19 +570,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -561,6 +596,38 @@
     <xf numFmtId="12" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="12" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="12" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="12" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="12" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="12" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -938,14 +1005,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
@@ -1011,7 +1078,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABD15CAF-166A-4E7C-A368-DCD1389C4192}">
   <dimension ref="A2:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
@@ -1023,14 +1090,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B4" s="4" t="s">
@@ -1493,7 +1560,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1507,15 +1574,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
     </row>
     <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="13"/>
@@ -1542,13 +1609,13 @@
       <c r="A4" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="14" t="s">
         <v>55</v>
       </c>
       <c r="E4" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="14" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1556,13 +1623,13 @@
       <c r="A5" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="14" t="s">
         <v>56</v>
       </c>
       <c r="E5" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="14" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1570,13 +1637,13 @@
       <c r="A6" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="14" t="s">
         <v>57</v>
       </c>
       <c r="E6" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="G6" s="15" t="s">
+      <c r="G6" s="14" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1584,13 +1651,13 @@
       <c r="A7" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="14" t="s">
         <v>21</v>
       </c>
       <c r="E7" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="G7" s="15" t="s">
+      <c r="G7" s="14" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1616,13 +1683,13 @@
       <c r="A10" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="14" t="s">
         <v>64</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="G10" s="15" t="s">
+      <c r="G10" s="14" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1630,13 +1697,13 @@
       <c r="A11" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="14" t="s">
         <v>58</v>
       </c>
       <c r="E11" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="G11" s="15" t="s">
+      <c r="G11" s="14" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1644,13 +1711,13 @@
       <c r="A12" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="14" t="s">
         <v>59</v>
       </c>
       <c r="E12" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="G12" s="15" t="s">
+      <c r="G12" s="14" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1658,13 +1725,13 @@
       <c r="A13" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="14" t="s">
         <v>60</v>
       </c>
       <c r="E13" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="G13" s="15" t="s">
+      <c r="G13" s="14" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1675,7 +1742,7 @@
       <c r="E14" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="G14" s="15" t="s">
+      <c r="G14" s="14" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1695,7 +1762,7 @@
   <dimension ref="A1:U24"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P26" sqref="P26"/>
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1714,20 +1781,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="15" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
     </row>
     <row r="3" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
@@ -1878,7 +1945,7 @@
       </c>
     </row>
     <row r="6" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="15" t="s">
         <v>40</v>
       </c>
       <c r="D6" s="4" t="s">
@@ -1899,7 +1966,7 @@
       <c r="I6" s="7">
         <v>0</v>
       </c>
-      <c r="L6" s="16" t="s">
+      <c r="L6" s="15" t="s">
         <v>49</v>
       </c>
       <c r="O6" s="4" t="s">
@@ -1975,23 +2042,23 @@
       <c r="D9" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="25">
+      <c r="E9" s="22">
         <f>E4/$C$9</f>
         <v>0.5714285714285714</v>
       </c>
-      <c r="F9" s="25">
+      <c r="F9" s="22">
         <f t="shared" ref="F9:I9" si="0">F4/$C$9</f>
         <v>1</v>
       </c>
-      <c r="G9" s="25">
+      <c r="G9" s="22">
         <f t="shared" si="0"/>
         <v>0.14285714285714285</v>
       </c>
-      <c r="H9" s="25">
+      <c r="H9" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I9" s="25">
+      <c r="I9" s="22">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
@@ -2004,23 +2071,23 @@
       <c r="O9" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="P9" s="25">
+      <c r="P9" s="22">
         <f>P4/$N$9</f>
         <v>0.75</v>
       </c>
-      <c r="Q9" s="25">
+      <c r="Q9" s="22">
         <f>Q4/$N$9</f>
         <v>1</v>
       </c>
-      <c r="R9" s="25">
+      <c r="R9" s="22">
         <f t="shared" ref="R9:T9" si="1">R4/$N$9</f>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="S9" s="25">
+      <c r="S9" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T9" s="25">
+      <c r="T9" s="22">
         <f t="shared" si="1"/>
         <v>65</v>
       </c>
@@ -2035,23 +2102,23 @@
       <c r="D10" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="25">
+      <c r="E10" s="22">
         <f>-$C$10*E9+E5</f>
         <v>4.2857142857142856</v>
       </c>
-      <c r="F10" s="25">
+      <c r="F10" s="22">
         <f>-$C$10*F9+F5</f>
         <v>0</v>
       </c>
-      <c r="G10" s="25">
+      <c r="G10" s="22">
         <f t="shared" ref="G10:I10" si="2">-$C$10*G9+G5</f>
         <v>-0.42857142857142855</v>
       </c>
-      <c r="H10" s="25">
+      <c r="H10" s="22">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="I10" s="25">
+      <c r="I10" s="22">
         <f t="shared" si="2"/>
         <v>108</v>
       </c>
@@ -2064,23 +2131,23 @@
       <c r="O10" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="P10" s="25">
+      <c r="P10" s="22">
         <f>-$N$10*P9+P5</f>
         <v>28</v>
       </c>
-      <c r="Q10" s="25">
+      <c r="Q10" s="22">
         <f>-$N$10*Q9+Q5</f>
         <v>0</v>
       </c>
-      <c r="R10" s="25">
+      <c r="R10" s="22">
         <f t="shared" ref="R10:T10" si="3">-$N$10*R9+R5</f>
         <v>-0.4</v>
       </c>
-      <c r="S10" s="25">
+      <c r="S10" s="22">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="T10" s="25">
+      <c r="T10" s="22">
         <f t="shared" si="3"/>
         <v>860</v>
       </c>
@@ -2092,23 +2159,23 @@
       <c r="D11" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="25">
+      <c r="E11" s="22">
         <f>-$C$11*E9+E6</f>
         <v>-1.1428571428571432</v>
       </c>
-      <c r="F11" s="25">
+      <c r="F11" s="22">
         <f>-$C$11*F9+F6</f>
         <v>0</v>
       </c>
-      <c r="G11" s="25">
+      <c r="G11" s="22">
         <f t="shared" ref="G11:I11" si="4">-$C$11*G9+G6</f>
         <v>0.71428571428571419</v>
       </c>
-      <c r="H11" s="25">
+      <c r="H11" s="22">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I11" s="25">
+      <c r="I11" s="22">
         <f t="shared" si="4"/>
         <v>240</v>
       </c>
@@ -2118,23 +2185,23 @@
       <c r="O11" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="P11" s="25">
+      <c r="P11" s="22">
         <f>-$N$11*P9+P6</f>
         <v>-0.5</v>
       </c>
-      <c r="Q11" s="25">
+      <c r="Q11" s="22">
         <f>-$N$11*Q9+Q6</f>
         <v>0</v>
       </c>
-      <c r="R11" s="25">
+      <c r="R11" s="22">
         <f t="shared" ref="R11:T11" si="5">-$N$11*R9+R6</f>
         <v>0.35000000000000003</v>
       </c>
-      <c r="S11" s="25">
+      <c r="S11" s="22">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="T11" s="25">
+      <c r="T11" s="22">
         <f t="shared" si="5"/>
         <v>910</v>
       </c>
@@ -2181,19 +2248,19 @@
       <c r="D14" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E14" s="26">
+      <c r="E14" s="23">
         <v>0.5714285714285714</v>
       </c>
-      <c r="F14" s="27">
-        <v>1</v>
-      </c>
-      <c r="G14" s="27">
+      <c r="F14" s="24">
+        <v>1</v>
+      </c>
+      <c r="G14" s="24">
         <v>0.14285714285714285</v>
       </c>
-      <c r="H14" s="27">
-        <v>0</v>
-      </c>
-      <c r="I14" s="27">
+      <c r="H14" s="24">
+        <v>0</v>
+      </c>
+      <c r="I14" s="24">
         <v>48</v>
       </c>
       <c r="J14">
@@ -2203,19 +2270,19 @@
       <c r="O14" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="P14" s="26">
+      <c r="P14" s="23">
         <v>0.75</v>
       </c>
-      <c r="Q14" s="25">
-        <v>1</v>
-      </c>
-      <c r="R14" s="25">
+      <c r="Q14" s="22">
+        <v>1</v>
+      </c>
+      <c r="R14" s="22">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="S14" s="25">
-        <v>0</v>
-      </c>
-      <c r="T14" s="25">
+      <c r="S14" s="22">
+        <v>0</v>
+      </c>
+      <c r="T14" s="22">
         <v>65</v>
       </c>
       <c r="U14">
@@ -2227,19 +2294,19 @@
       <c r="D15" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E15" s="28">
+      <c r="E15" s="25">
         <v>4.2857142857142856</v>
       </c>
-      <c r="F15" s="26">
-        <v>0</v>
-      </c>
-      <c r="G15" s="26">
+      <c r="F15" s="23">
+        <v>0</v>
+      </c>
+      <c r="G15" s="23">
         <v>-0.42857142857142855</v>
       </c>
-      <c r="H15" s="26">
-        <v>1</v>
-      </c>
-      <c r="I15" s="26">
+      <c r="H15" s="23">
+        <v>1</v>
+      </c>
+      <c r="I15" s="23">
         <v>108</v>
       </c>
       <c r="J15">
@@ -2249,19 +2316,19 @@
       <c r="O15" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="P15" s="28">
+      <c r="P15" s="25">
         <v>28</v>
       </c>
-      <c r="Q15" s="26">
-        <v>0</v>
-      </c>
-      <c r="R15" s="26">
+      <c r="Q15" s="23">
+        <v>0</v>
+      </c>
+      <c r="R15" s="23">
         <v>-0.4</v>
       </c>
-      <c r="S15" s="26">
-        <v>1</v>
-      </c>
-      <c r="T15" s="26">
+      <c r="S15" s="23">
+        <v>1</v>
+      </c>
+      <c r="T15" s="23">
         <v>860</v>
       </c>
       <c r="U15">
@@ -2273,37 +2340,37 @@
       <c r="D16" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E16" s="26">
+      <c r="E16" s="23">
         <v>-1.1428571428571432</v>
       </c>
-      <c r="F16" s="27">
-        <v>0</v>
-      </c>
-      <c r="G16" s="27">
+      <c r="F16" s="24">
+        <v>0</v>
+      </c>
+      <c r="G16" s="24">
         <v>0.71428571428571419</v>
       </c>
-      <c r="H16" s="27">
-        <v>0</v>
-      </c>
-      <c r="I16" s="27">
+      <c r="H16" s="24">
+        <v>0</v>
+      </c>
+      <c r="I16" s="24">
         <v>240</v>
       </c>
       <c r="O16" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="P16" s="26">
+      <c r="P16" s="23">
         <v>-0.5</v>
       </c>
-      <c r="Q16" s="25">
-        <v>0</v>
-      </c>
-      <c r="R16" s="25">
+      <c r="Q16" s="22">
+        <v>0</v>
+      </c>
+      <c r="R16" s="22">
         <v>0.35000000000000003</v>
       </c>
-      <c r="S16" s="25">
-        <v>0</v>
-      </c>
-      <c r="T16" s="25">
+      <c r="S16" s="22">
+        <v>0</v>
+      </c>
+      <c r="T16" s="22">
         <v>910</v>
       </c>
     </row>
@@ -2352,23 +2419,23 @@
       <c r="D19" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E19" s="27">
+      <c r="E19" s="24">
         <f>-$C$19*E20+E14</f>
         <v>0</v>
       </c>
-      <c r="F19" s="27">
+      <c r="F19" s="24">
         <f t="shared" ref="F19:I19" si="6">-$C$19*F20+F14</f>
         <v>1</v>
       </c>
-      <c r="G19" s="27">
+      <c r="G19" s="24">
         <f t="shared" si="6"/>
         <v>0.19999999999999998</v>
       </c>
-      <c r="H19" s="27">
+      <c r="H19" s="24">
         <f t="shared" si="6"/>
         <v>-0.13333333333333333</v>
       </c>
-      <c r="I19" s="27">
+      <c r="I19" s="24">
         <f t="shared" si="6"/>
         <v>33.6</v>
       </c>
@@ -2378,23 +2445,23 @@
       <c r="O19" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="P19" s="25">
+      <c r="P19" s="22">
         <f>-$N$19*P20+P14</f>
         <v>0</v>
       </c>
-      <c r="Q19" s="25">
+      <c r="Q19" s="22">
         <f t="shared" ref="Q19:T19" si="7">-$N$19*Q20+Q14</f>
         <v>1</v>
       </c>
-      <c r="R19" s="25">
+      <c r="R19" s="22">
         <f t="shared" si="7"/>
         <v>3.5714285714285712E-2</v>
       </c>
-      <c r="S19" s="25">
+      <c r="S19" s="22">
         <f t="shared" si="7"/>
         <v>-2.6785714285714284E-2</v>
       </c>
-      <c r="T19" s="25">
+      <c r="T19" s="22">
         <f t="shared" si="7"/>
         <v>41.964285714285715</v>
       </c>
@@ -2406,23 +2473,23 @@
       <c r="D20" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E20" s="27">
+      <c r="E20" s="24">
         <f>E15/$C$20</f>
         <v>1</v>
       </c>
-      <c r="F20" s="27">
+      <c r="F20" s="24">
         <f t="shared" ref="F20:I20" si="8">F15/$C$20</f>
         <v>0</v>
       </c>
-      <c r="G20" s="27">
+      <c r="G20" s="24">
         <f t="shared" si="8"/>
         <v>-9.9999999999999992E-2</v>
       </c>
-      <c r="H20" s="27">
+      <c r="H20" s="24">
         <f t="shared" si="8"/>
         <v>0.23333333333333334</v>
       </c>
-      <c r="I20" s="27">
+      <c r="I20" s="24">
         <f t="shared" si="8"/>
         <v>25.2</v>
       </c>
@@ -2432,23 +2499,23 @@
       <c r="O20" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="P20" s="25">
+      <c r="P20" s="22">
         <f>P15/$N$20</f>
         <v>1</v>
       </c>
-      <c r="Q20" s="25">
+      <c r="Q20" s="22">
         <f t="shared" ref="Q20:T20" si="9">Q15/$N$20</f>
         <v>0</v>
       </c>
-      <c r="R20" s="25">
+      <c r="R20" s="22">
         <f t="shared" si="9"/>
         <v>-1.4285714285714287E-2</v>
       </c>
-      <c r="S20" s="25">
+      <c r="S20" s="22">
         <f t="shared" si="9"/>
         <v>3.5714285714285712E-2</v>
       </c>
-      <c r="T20" s="25">
+      <c r="T20" s="22">
         <f t="shared" si="9"/>
         <v>30.714285714285715</v>
       </c>
@@ -2460,23 +2527,23 @@
       <c r="D21" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E21" s="27">
+      <c r="E21" s="24">
         <f>-$C$21*E20+E16</f>
         <v>0</v>
       </c>
-      <c r="F21" s="27">
+      <c r="F21" s="24">
         <f t="shared" ref="F21:I21" si="10">-$C$21*F20+F16</f>
         <v>0</v>
       </c>
-      <c r="G21" s="27">
+      <c r="G21" s="24">
         <f t="shared" si="10"/>
         <v>0.59999999999999987</v>
       </c>
-      <c r="H21" s="27">
+      <c r="H21" s="24">
         <f t="shared" si="10"/>
         <v>0.26666666666666677</v>
       </c>
-      <c r="I21" s="27">
+      <c r="I21" s="24">
         <f t="shared" si="10"/>
         <v>268.8</v>
       </c>
@@ -2486,23 +2553,23 @@
       <c r="O21" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="P21" s="25">
+      <c r="P21" s="22">
         <f>-$N$21*P20+P16</f>
         <v>0</v>
       </c>
-      <c r="Q21" s="25">
+      <c r="Q21" s="22">
         <f t="shared" ref="Q21:T21" si="11">-$N$21*Q20+Q16</f>
         <v>0</v>
       </c>
-      <c r="R21" s="25">
+      <c r="R21" s="22">
         <f t="shared" si="11"/>
         <v>0.34285714285714292</v>
       </c>
-      <c r="S21" s="25">
+      <c r="S21" s="22">
         <f t="shared" si="11"/>
         <v>1.7857142857142856E-2</v>
       </c>
-      <c r="T21" s="25">
+      <c r="T21" s="22">
         <f t="shared" si="11"/>
         <v>925.35714285714289</v>
       </c>
@@ -2571,7 +2638,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C59A54B7-FF1E-4F6E-B445-03978885F374}">
   <dimension ref="A1:V56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
@@ -2583,30 +2650,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
-      <c r="T1" s="18"/>
-      <c r="U1" s="18"/>
-      <c r="V1" s="18"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
+      <c r="S1" s="30"/>
+      <c r="T1" s="30"/>
+      <c r="U1" s="30"/>
+      <c r="V1" s="30"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -2680,64 +2747,64 @@
       <c r="A19" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="G19" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="H19" s="20" t="s">
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="G19" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="H19" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="I19" s="20" t="s">
+      <c r="I19" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="J19" s="20" t="s">
+      <c r="J19" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="K19" s="20" t="s">
+      <c r="K19" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="L19" s="20" t="s">
+      <c r="L19" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="M19" s="20" t="s">
+      <c r="M19" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="N19" s="20" t="s">
+      <c r="N19" s="17" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="G20" s="21" t="s">
+      <c r="B20" s="29"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="G20" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="H20" s="22">
+      <c r="H20" s="19">
         <v>2</v>
       </c>
-      <c r="I20" s="22">
+      <c r="I20" s="19">
         <v>2.2000000000000002</v>
       </c>
-      <c r="J20" s="23">
+      <c r="J20" s="20">
         <v>2.6</v>
       </c>
-      <c r="K20" s="22">
-        <v>1</v>
-      </c>
-      <c r="L20" s="22">
-        <v>0</v>
-      </c>
-      <c r="M20" s="22">
-        <v>0</v>
-      </c>
-      <c r="N20" s="22">
+      <c r="K20" s="19">
+        <v>1</v>
+      </c>
+      <c r="L20" s="19">
+        <v>0</v>
+      </c>
+      <c r="M20" s="19">
+        <v>0</v>
+      </c>
+      <c r="N20" s="19">
         <v>2300</v>
       </c>
       <c r="O20">
@@ -2749,34 +2816,34 @@
       <c r="A21" t="s">
         <v>100</v>
       </c>
-      <c r="B21" s="19" t="s">
+      <c r="B21" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="G21" s="21" t="s">
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="G21" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="H21" s="22">
-        <v>1</v>
-      </c>
-      <c r="I21" s="22">
+      <c r="H21" s="19">
+        <v>1</v>
+      </c>
+      <c r="I21" s="19">
         <v>1.2</v>
       </c>
-      <c r="J21" s="23">
+      <c r="J21" s="20">
         <v>1.3</v>
       </c>
-      <c r="K21" s="22">
-        <v>0</v>
-      </c>
-      <c r="L21" s="22">
-        <v>1</v>
-      </c>
-      <c r="M21" s="22">
-        <v>0</v>
-      </c>
-      <c r="N21" s="22">
+      <c r="K21" s="19">
+        <v>0</v>
+      </c>
+      <c r="L21" s="19">
+        <v>1</v>
+      </c>
+      <c r="M21" s="19">
+        <v>0</v>
+      </c>
+      <c r="N21" s="19">
         <v>1250</v>
       </c>
       <c r="O21">
@@ -2785,34 +2852,34 @@
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B22" s="19" t="s">
+      <c r="B22" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="G22" s="21" t="s">
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="G22" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="H22" s="23">
+      <c r="H22" s="20">
         <v>0.4</v>
       </c>
-      <c r="I22" s="23">
+      <c r="I22" s="20">
         <v>0.6</v>
       </c>
-      <c r="J22" s="24">
+      <c r="J22" s="21">
         <v>0.95</v>
       </c>
-      <c r="K22" s="23">
-        <v>0</v>
-      </c>
-      <c r="L22" s="23">
-        <v>0</v>
-      </c>
-      <c r="M22" s="23">
-        <v>1</v>
-      </c>
-      <c r="N22" s="23">
+      <c r="K22" s="20">
+        <v>0</v>
+      </c>
+      <c r="L22" s="20">
+        <v>0</v>
+      </c>
+      <c r="M22" s="20">
+        <v>1</v>
+      </c>
+      <c r="N22" s="20">
         <v>610</v>
       </c>
       <c r="O22">
@@ -2821,72 +2888,72 @@
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B23" s="19" t="s">
+      <c r="B23" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="G23" s="21" t="s">
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="G23" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="H23" s="22">
+      <c r="H23" s="19">
         <v>-24</v>
       </c>
-      <c r="I23" s="22">
+      <c r="I23" s="19">
         <v>-30</v>
       </c>
-      <c r="J23" s="23">
+      <c r="J23" s="20">
         <v>-31</v>
       </c>
-      <c r="K23" s="22">
-        <v>0</v>
-      </c>
-      <c r="L23" s="22">
-        <v>0</v>
-      </c>
-      <c r="M23" s="22">
-        <v>0</v>
-      </c>
-      <c r="N23" s="22">
+      <c r="K23" s="19">
+        <v>0</v>
+      </c>
+      <c r="L23" s="19">
+        <v>0</v>
+      </c>
+      <c r="M23" s="19">
+        <v>0</v>
+      </c>
+      <c r="N23" s="19">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B24" s="19" t="s">
+      <c r="B24" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="G25" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="H25" s="20" t="s">
+      <c r="B25" s="29"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="G25" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="H25" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="I25" s="20" t="s">
+      <c r="I25" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="J25" s="20" t="s">
+      <c r="J25" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="K25" s="20" t="s">
+      <c r="K25" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="L25" s="20" t="s">
+      <c r="L25" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="M25" s="20" t="s">
+      <c r="M25" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="N25" s="20" t="s">
+      <c r="N25" s="17" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2894,83 +2961,83 @@
       <c r="A26" t="s">
         <v>103</v>
       </c>
-      <c r="B26" s="19" t="s">
+      <c r="B26" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="23">
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="20">
         <v>2.6</v>
       </c>
-      <c r="G26" s="21" t="s">
+      <c r="G26" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="H26" s="22">
+      <c r="H26" s="19">
         <f t="shared" ref="H26:I26" si="1">-$F$26*H28+H20</f>
         <v>0.90526315789473677</v>
       </c>
-      <c r="I26" s="22">
+      <c r="I26" s="19">
         <f t="shared" si="1"/>
         <v>0.55789473684210544</v>
       </c>
-      <c r="J26" s="22">
+      <c r="J26" s="19">
         <f>-$F$26*J28+J20</f>
         <v>0</v>
       </c>
-      <c r="K26" s="22">
+      <c r="K26" s="19">
         <f t="shared" ref="K26:N26" si="2">-$F$26*K28+K20</f>
         <v>1</v>
       </c>
-      <c r="L26" s="22">
+      <c r="L26" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M26" s="22">
+      <c r="M26" s="19">
         <f t="shared" si="2"/>
         <v>-2.736842105263158</v>
       </c>
-      <c r="N26" s="22">
+      <c r="N26" s="19">
         <f t="shared" si="2"/>
         <v>630.52631578947353</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B27" s="19"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="23">
+      <c r="B27" s="29"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="20">
         <v>1.3</v>
       </c>
-      <c r="G27" s="21" t="s">
+      <c r="G27" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="H27" s="22">
+      <c r="H27" s="19">
         <f t="shared" ref="H27:I27" si="3">-$F$27*H28+H21</f>
         <v>0.45263157894736838</v>
       </c>
-      <c r="I27" s="22">
+      <c r="I27" s="19">
         <f t="shared" si="3"/>
         <v>0.37894736842105259</v>
       </c>
-      <c r="J27" s="22">
+      <c r="J27" s="19">
         <f>-$F$27*J28+J21</f>
         <v>0</v>
       </c>
-      <c r="K27" s="22">
+      <c r="K27" s="19">
         <f t="shared" ref="K27:N27" si="4">-$F$27*K28+K21</f>
         <v>0</v>
       </c>
-      <c r="L27" s="22">
+      <c r="L27" s="19">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="M27" s="22">
+      <c r="M27" s="19">
         <f t="shared" si="4"/>
         <v>-1.368421052631579</v>
       </c>
-      <c r="N27" s="22">
+      <c r="N27" s="19">
         <f t="shared" si="4"/>
         <v>415.26315789473676</v>
       </c>
@@ -2979,152 +3046,152 @@
       <c r="A28" t="s">
         <v>104</v>
       </c>
-      <c r="B28" s="19" t="s">
+      <c r="B28" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="23">
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="20">
         <v>0.95</v>
       </c>
-      <c r="G28" s="21" t="s">
+      <c r="G28" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="H28" s="22">
+      <c r="H28" s="19">
         <f t="shared" ref="H28:I28" si="5">H22/$F$28</f>
         <v>0.4210526315789474</v>
       </c>
-      <c r="I28" s="22">
+      <c r="I28" s="19">
         <f t="shared" si="5"/>
         <v>0.63157894736842102</v>
       </c>
-      <c r="J28" s="22">
+      <c r="J28" s="19">
         <f>J22/$F$28</f>
         <v>1</v>
       </c>
-      <c r="K28" s="22">
+      <c r="K28" s="19">
         <f t="shared" ref="K28:N28" si="6">K22/$F$28</f>
         <v>0</v>
       </c>
-      <c r="L28" s="22">
+      <c r="L28" s="19">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="M28" s="22">
+      <c r="M28" s="19">
         <f t="shared" si="6"/>
         <v>1.0526315789473684</v>
       </c>
-      <c r="N28" s="22">
+      <c r="N28" s="19">
         <f t="shared" si="6"/>
         <v>642.1052631578948</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B29" s="19" t="s">
+      <c r="B29" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="23">
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="20">
         <v>-31</v>
       </c>
-      <c r="G29" s="21" t="s">
+      <c r="G29" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="H29" s="22">
+      <c r="H29" s="19">
         <f t="shared" ref="H29:I29" si="7">-$F$29*H28+H23</f>
         <v>-10.94736842105263</v>
       </c>
-      <c r="I29" s="22">
+      <c r="I29" s="19">
         <f t="shared" si="7"/>
         <v>-10.421052631578949</v>
       </c>
-      <c r="J29" s="22">
+      <c r="J29" s="19">
         <f>-$F$29*J28+J23</f>
         <v>0</v>
       </c>
-      <c r="K29" s="22">
+      <c r="K29" s="19">
         <f t="shared" ref="K29:N29" si="8">-$F$29*K28+K23</f>
         <v>0</v>
       </c>
-      <c r="L29" s="22">
+      <c r="L29" s="19">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="M29" s="22">
+      <c r="M29" s="19">
         <f t="shared" si="8"/>
         <v>32.631578947368418</v>
       </c>
-      <c r="N29" s="22">
+      <c r="N29" s="19">
         <f t="shared" si="8"/>
         <v>19905.26315789474</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B30" s="19" t="s">
+      <c r="B30" s="29" t="s">
         <v>107</v>
       </c>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="29"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B31" s="19" t="s">
+      <c r="B31" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
-      <c r="G31" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="H31" s="20" t="s">
+      <c r="C31" s="29"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="29"/>
+      <c r="G31" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="H31" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="I31" s="20" t="s">
+      <c r="I31" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="J31" s="20" t="s">
+      <c r="J31" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="K31" s="20" t="s">
+      <c r="K31" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="L31" s="20" t="s">
+      <c r="L31" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="M31" s="20" t="s">
+      <c r="M31" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="N31" s="20" t="s">
+      <c r="N31" s="17" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="G32" s="21" t="s">
+      <c r="G32" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="H32" s="24">
+      <c r="H32" s="21">
         <v>0.90526315789473677</v>
       </c>
-      <c r="I32" s="23">
+      <c r="I32" s="20">
         <v>0.55789473684210544</v>
       </c>
-      <c r="J32" s="23">
-        <v>0</v>
-      </c>
-      <c r="K32" s="23">
-        <v>1</v>
-      </c>
-      <c r="L32" s="23">
-        <v>0</v>
-      </c>
-      <c r="M32" s="23">
+      <c r="J32" s="20">
+        <v>0</v>
+      </c>
+      <c r="K32" s="20">
+        <v>1</v>
+      </c>
+      <c r="L32" s="20">
+        <v>0</v>
+      </c>
+      <c r="M32" s="20">
         <v>-2.736842105263158</v>
       </c>
-      <c r="N32" s="23">
+      <c r="N32" s="20">
         <v>630.52631578947353</v>
       </c>
       <c r="O32">
@@ -3133,28 +3200,28 @@
       </c>
     </row>
     <row r="33" spans="6:15" x14ac:dyDescent="0.3">
-      <c r="G33" s="21" t="s">
+      <c r="G33" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="H33" s="23">
+      <c r="H33" s="20">
         <v>0.45263157894736838</v>
       </c>
-      <c r="I33" s="22">
+      <c r="I33" s="19">
         <v>0.37894736842105259</v>
       </c>
-      <c r="J33" s="22">
-        <v>0</v>
-      </c>
-      <c r="K33" s="22">
-        <v>0</v>
-      </c>
-      <c r="L33" s="22">
-        <v>1</v>
-      </c>
-      <c r="M33" s="22">
+      <c r="J33" s="19">
+        <v>0</v>
+      </c>
+      <c r="K33" s="19">
+        <v>0</v>
+      </c>
+      <c r="L33" s="19">
+        <v>1</v>
+      </c>
+      <c r="M33" s="19">
         <v>-1.368421052631579</v>
       </c>
-      <c r="N33" s="22">
+      <c r="N33" s="19">
         <v>415.26315789473676</v>
       </c>
       <c r="O33">
@@ -3163,28 +3230,28 @@
       </c>
     </row>
     <row r="34" spans="6:15" x14ac:dyDescent="0.3">
-      <c r="G34" s="21" t="s">
+      <c r="G34" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="H34" s="23">
+      <c r="H34" s="20">
         <v>0.4210526315789474</v>
       </c>
-      <c r="I34" s="22">
+      <c r="I34" s="19">
         <v>0.63157894736842102</v>
       </c>
-      <c r="J34" s="22">
-        <v>1</v>
-      </c>
-      <c r="K34" s="22">
-        <v>0</v>
-      </c>
-      <c r="L34" s="22">
-        <v>0</v>
-      </c>
-      <c r="M34" s="22">
+      <c r="J34" s="19">
+        <v>1</v>
+      </c>
+      <c r="K34" s="19">
+        <v>0</v>
+      </c>
+      <c r="L34" s="19">
+        <v>0</v>
+      </c>
+      <c r="M34" s="19">
         <v>1.0526315789473684</v>
       </c>
-      <c r="N34" s="22">
+      <c r="N34" s="19">
         <v>642.1052631578948</v>
       </c>
       <c r="O34">
@@ -3193,250 +3260,250 @@
       </c>
     </row>
     <row r="35" spans="6:15" x14ac:dyDescent="0.3">
-      <c r="G35" s="21" t="s">
+      <c r="G35" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="H35" s="23">
+      <c r="H35" s="20">
         <v>-10.94736842105263</v>
       </c>
-      <c r="I35" s="22">
+      <c r="I35" s="19">
         <v>-10.421052631578949</v>
       </c>
-      <c r="J35" s="22">
-        <v>0</v>
-      </c>
-      <c r="K35" s="22">
-        <v>0</v>
-      </c>
-      <c r="L35" s="22">
-        <v>0</v>
-      </c>
-      <c r="M35" s="22">
+      <c r="J35" s="19">
+        <v>0</v>
+      </c>
+      <c r="K35" s="19">
+        <v>0</v>
+      </c>
+      <c r="L35" s="19">
+        <v>0</v>
+      </c>
+      <c r="M35" s="19">
         <v>32.631578947368418</v>
       </c>
-      <c r="N35" s="22">
+      <c r="N35" s="19">
         <v>19905.26315789474</v>
       </c>
     </row>
     <row r="37" spans="6:15" x14ac:dyDescent="0.3">
-      <c r="G37" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="H37" s="20" t="s">
+      <c r="G37" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="H37" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="I37" s="20" t="s">
+      <c r="I37" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="J37" s="20" t="s">
+      <c r="J37" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="K37" s="20" t="s">
+      <c r="K37" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="L37" s="20" t="s">
+      <c r="L37" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="M37" s="20" t="s">
+      <c r="M37" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="N37" s="20" t="s">
+      <c r="N37" s="17" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="38" spans="6:15" x14ac:dyDescent="0.3">
-      <c r="F38" s="23">
+      <c r="F38" s="20">
         <v>0.90526315789473677</v>
       </c>
-      <c r="G38" s="21" t="s">
+      <c r="G38" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="H38" s="22">
+      <c r="H38" s="19">
         <f>H32/$F$38</f>
         <v>1</v>
       </c>
-      <c r="I38" s="22">
+      <c r="I38" s="19">
         <f t="shared" ref="I38:N38" si="10">I32/$F$38</f>
         <v>0.61627906976744207</v>
       </c>
-      <c r="J38" s="22">
+      <c r="J38" s="19">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="K38" s="22">
+      <c r="K38" s="19">
         <f t="shared" si="10"/>
         <v>1.1046511627906979</v>
       </c>
-      <c r="L38" s="22">
+      <c r="L38" s="19">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M38" s="22">
+      <c r="M38" s="19">
         <f t="shared" si="10"/>
         <v>-3.0232558139534889</v>
       </c>
-      <c r="N38" s="22">
+      <c r="N38" s="19">
         <f t="shared" si="10"/>
         <v>696.51162790697663</v>
       </c>
     </row>
     <row r="39" spans="6:15" x14ac:dyDescent="0.3">
-      <c r="F39" s="23">
+      <c r="F39" s="20">
         <v>0.45263157894736838</v>
       </c>
-      <c r="G39" s="21" t="s">
+      <c r="G39" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="H39" s="22">
+      <c r="H39" s="19">
         <f>-$F$39*H38+H33</f>
         <v>0</v>
       </c>
-      <c r="I39" s="22">
+      <c r="I39" s="19">
         <f t="shared" ref="I39:N39" si="11">-$F$39*I38+I33</f>
         <v>9.9999999999999867E-2</v>
       </c>
-      <c r="J39" s="22">
+      <c r="J39" s="19">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="K39" s="22">
+      <c r="K39" s="19">
         <f t="shared" si="11"/>
         <v>-0.5</v>
       </c>
-      <c r="L39" s="22">
+      <c r="L39" s="19">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="M39" s="22">
+      <c r="M39" s="19">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N39" s="22">
+      <c r="N39" s="19">
         <f t="shared" si="11"/>
         <v>100</v>
       </c>
     </row>
     <row r="40" spans="6:15" x14ac:dyDescent="0.3">
-      <c r="F40" s="23">
+      <c r="F40" s="20">
         <v>0.4210526315789474</v>
       </c>
-      <c r="G40" s="21" t="s">
+      <c r="G40" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="H40" s="22">
+      <c r="H40" s="19">
         <f>-$F$40*H38+H34</f>
         <v>0</v>
       </c>
-      <c r="I40" s="22">
+      <c r="I40" s="19">
         <f t="shared" ref="I40:N40" si="12">-$F$40*I38+I34</f>
         <v>0.37209302325581384</v>
       </c>
-      <c r="J40" s="22">
+      <c r="J40" s="19">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="K40" s="22">
+      <c r="K40" s="19">
         <f t="shared" si="12"/>
         <v>-0.46511627906976755</v>
       </c>
-      <c r="L40" s="22">
+      <c r="L40" s="19">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="M40" s="22">
+      <c r="M40" s="19">
         <f t="shared" si="12"/>
         <v>2.3255813953488373</v>
       </c>
-      <c r="N40" s="22">
+      <c r="N40" s="19">
         <f t="shared" si="12"/>
         <v>348.83720930232568</v>
       </c>
     </row>
     <row r="41" spans="6:15" x14ac:dyDescent="0.3">
-      <c r="F41" s="23">
+      <c r="F41" s="20">
         <v>-10.94736842105263</v>
       </c>
-      <c r="G41" s="21" t="s">
+      <c r="G41" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="H41" s="22">
+      <c r="H41" s="19">
         <f>-$F$41*H38+H35</f>
         <v>0</v>
       </c>
-      <c r="I41" s="22">
+      <c r="I41" s="19">
         <f t="shared" ref="I41:N41" si="13">-$F$41*I38+I35</f>
         <v>-3.6744186046511631</v>
       </c>
-      <c r="J41" s="22">
+      <c r="J41" s="19">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="K41" s="22">
+      <c r="K41" s="19">
         <f t="shared" si="13"/>
         <v>12.093023255813954</v>
       </c>
-      <c r="L41" s="22">
+      <c r="L41" s="19">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="M41" s="22">
+      <c r="M41" s="19">
         <f t="shared" si="13"/>
         <v>-0.46511627906976827</v>
       </c>
-      <c r="N41" s="22">
+      <c r="N41" s="19">
         <f t="shared" si="13"/>
         <v>27530.232558139534</v>
       </c>
     </row>
     <row r="43" spans="6:15" x14ac:dyDescent="0.3">
-      <c r="G43" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="H43" s="20" t="s">
+      <c r="G43" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="H43" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="I43" s="20" t="s">
+      <c r="I43" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="J43" s="20" t="s">
+      <c r="J43" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="K43" s="20" t="s">
+      <c r="K43" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="L43" s="20" t="s">
+      <c r="L43" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="M43" s="20" t="s">
+      <c r="M43" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="N43" s="20" t="s">
+      <c r="N43" s="17" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="44" spans="6:15" x14ac:dyDescent="0.3">
-      <c r="G44" s="21" t="s">
+      <c r="G44" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="H44" s="22">
-        <v>1</v>
-      </c>
-      <c r="I44" s="23">
+      <c r="H44" s="19">
+        <v>1</v>
+      </c>
+      <c r="I44" s="20">
         <v>0.61627906976744207</v>
       </c>
-      <c r="J44" s="22">
-        <v>0</v>
-      </c>
-      <c r="K44" s="22">
+      <c r="J44" s="19">
+        <v>0</v>
+      </c>
+      <c r="K44" s="19">
         <v>1.1046511627906979</v>
       </c>
-      <c r="L44" s="22">
-        <v>0</v>
-      </c>
-      <c r="M44" s="22">
+      <c r="L44" s="19">
+        <v>0</v>
+      </c>
+      <c r="M44" s="19">
         <v>-3.0232558139534889</v>
       </c>
-      <c r="N44" s="22">
+      <c r="N44" s="19">
         <v>696.51162790697663</v>
       </c>
       <c r="O44">
@@ -3445,28 +3512,28 @@
       </c>
     </row>
     <row r="45" spans="6:15" x14ac:dyDescent="0.3">
-      <c r="G45" s="21" t="s">
+      <c r="G45" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="H45" s="22">
-        <v>0</v>
-      </c>
-      <c r="I45" s="23">
+      <c r="H45" s="19">
+        <v>0</v>
+      </c>
+      <c r="I45" s="20">
         <v>9.9999999999999867E-2</v>
       </c>
-      <c r="J45" s="22">
-        <v>0</v>
-      </c>
-      <c r="K45" s="22">
+      <c r="J45" s="19">
+        <v>0</v>
+      </c>
+      <c r="K45" s="19">
         <v>-0.5</v>
       </c>
-      <c r="L45" s="22">
-        <v>1</v>
-      </c>
-      <c r="M45" s="22">
-        <v>0</v>
-      </c>
-      <c r="N45" s="22">
+      <c r="L45" s="19">
+        <v>1</v>
+      </c>
+      <c r="M45" s="19">
+        <v>0</v>
+      </c>
+      <c r="N45" s="19">
         <v>100</v>
       </c>
       <c r="O45">
@@ -3475,28 +3542,28 @@
       </c>
     </row>
     <row r="46" spans="6:15" x14ac:dyDescent="0.3">
-      <c r="G46" s="21" t="s">
+      <c r="G46" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="H46" s="23">
-        <v>0</v>
-      </c>
-      <c r="I46" s="24">
+      <c r="H46" s="20">
+        <v>0</v>
+      </c>
+      <c r="I46" s="21">
         <v>0.37209302325581384</v>
       </c>
-      <c r="J46" s="23">
-        <v>1</v>
-      </c>
-      <c r="K46" s="23">
+      <c r="J46" s="20">
+        <v>1</v>
+      </c>
+      <c r="K46" s="20">
         <v>-0.46511627906976755</v>
       </c>
-      <c r="L46" s="23">
-        <v>0</v>
-      </c>
-      <c r="M46" s="23">
+      <c r="L46" s="20">
+        <v>0</v>
+      </c>
+      <c r="M46" s="20">
         <v>2.3255813953488373</v>
       </c>
-      <c r="N46" s="23">
+      <c r="N46" s="20">
         <v>348.83720930232568</v>
       </c>
       <c r="O46">
@@ -3505,89 +3572,89 @@
       </c>
     </row>
     <row r="47" spans="6:15" x14ac:dyDescent="0.3">
-      <c r="G47" s="21" t="s">
+      <c r="G47" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="H47" s="22">
-        <v>0</v>
-      </c>
-      <c r="I47" s="23">
+      <c r="H47" s="19">
+        <v>0</v>
+      </c>
+      <c r="I47" s="20">
         <v>-3.6744186046511631</v>
       </c>
-      <c r="J47" s="22">
-        <v>0</v>
-      </c>
-      <c r="K47" s="22">
+      <c r="J47" s="19">
+        <v>0</v>
+      </c>
+      <c r="K47" s="19">
         <v>12.093023255813954</v>
       </c>
-      <c r="L47" s="22">
-        <v>0</v>
-      </c>
-      <c r="M47" s="22">
+      <c r="L47" s="19">
+        <v>0</v>
+      </c>
+      <c r="M47" s="19">
         <v>-0.46511627906976827</v>
       </c>
-      <c r="N47" s="22">
+      <c r="N47" s="19">
         <v>27530.232558139534</v>
       </c>
     </row>
     <row r="49" spans="6:15" x14ac:dyDescent="0.3">
-      <c r="G49" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="H49" s="20" t="s">
+      <c r="G49" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="H49" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="I49" s="20" t="s">
+      <c r="I49" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="J49" s="20" t="s">
+      <c r="J49" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="K49" s="20" t="s">
+      <c r="K49" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="L49" s="20" t="s">
+      <c r="L49" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="M49" s="20" t="s">
+      <c r="M49" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="N49" s="20" t="s">
+      <c r="N49" s="17" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="50" spans="6:15" x14ac:dyDescent="0.3">
-      <c r="F50" s="23">
+      <c r="F50" s="20">
         <v>0.61627906976744207</v>
       </c>
-      <c r="G50" s="21" t="s">
+      <c r="G50" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="H50" s="22">
+      <c r="H50" s="19">
         <f>-$F$50*H52+H44</f>
         <v>1</v>
       </c>
-      <c r="I50" s="22">
+      <c r="I50" s="19">
         <f>-$F$50*I52+I44</f>
         <v>0</v>
       </c>
-      <c r="J50" s="22">
+      <c r="J50" s="19">
         <f t="shared" ref="J50:N50" si="15">-$F$50*J52+J44</f>
         <v>-1.6562500000000011</v>
       </c>
-      <c r="K50" s="22">
+      <c r="K50" s="19">
         <f t="shared" si="15"/>
         <v>1.8750000000000009</v>
       </c>
-      <c r="L50" s="22">
+      <c r="L50" s="19">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="M50" s="22">
+      <c r="M50" s="19">
         <f t="shared" si="15"/>
         <v>-6.8750000000000036</v>
       </c>
-      <c r="N50" s="22">
+      <c r="N50" s="19">
         <f t="shared" si="15"/>
         <v>118.74999999999932</v>
       </c>
@@ -3596,37 +3663,37 @@
       </c>
     </row>
     <row r="51" spans="6:15" x14ac:dyDescent="0.3">
-      <c r="F51" s="23">
+      <c r="F51" s="20">
         <v>9.9999999999999867E-2</v>
       </c>
-      <c r="G51" s="21" t="s">
+      <c r="G51" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="H51" s="22">
+      <c r="H51" s="19">
         <f>-$F$51*H52+H45</f>
         <v>0</v>
       </c>
-      <c r="I51" s="22">
+      <c r="I51" s="19">
         <f>-$F$51*I52+I45</f>
         <v>0</v>
       </c>
-      <c r="J51" s="22">
+      <c r="J51" s="19">
         <f t="shared" ref="J51:N51" si="16">-$F$51*J52+J45</f>
         <v>-0.26874999999999971</v>
       </c>
-      <c r="K51" s="22">
+      <c r="K51" s="19">
         <f t="shared" si="16"/>
         <v>-0.37500000000000011</v>
       </c>
-      <c r="L51" s="22">
+      <c r="L51" s="19">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="M51" s="22">
+      <c r="M51" s="19">
         <f t="shared" si="16"/>
         <v>-0.62499999999999944</v>
       </c>
-      <c r="N51" s="22">
+      <c r="N51" s="19">
         <f t="shared" si="16"/>
         <v>6.2500000000000711</v>
       </c>
@@ -3635,37 +3702,37 @@
       </c>
     </row>
     <row r="52" spans="6:15" x14ac:dyDescent="0.3">
-      <c r="F52" s="23">
+      <c r="F52" s="20">
         <v>0.37209302325581384</v>
       </c>
-      <c r="G52" s="21" t="s">
+      <c r="G52" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="H52" s="22">
+      <c r="H52" s="19">
         <f>H46/$F$52</f>
         <v>0</v>
       </c>
-      <c r="I52" s="22">
+      <c r="I52" s="19">
         <f>I46/$F$52</f>
         <v>1</v>
       </c>
-      <c r="J52" s="22">
+      <c r="J52" s="19">
         <f t="shared" ref="J52:N52" si="17">J46/$F$52</f>
         <v>2.6875000000000009</v>
       </c>
-      <c r="K52" s="22">
+      <c r="K52" s="19">
         <f t="shared" si="17"/>
         <v>-1.2500000000000007</v>
       </c>
-      <c r="L52" s="22">
+      <c r="L52" s="19">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="M52" s="22">
+      <c r="M52" s="19">
         <f t="shared" si="17"/>
         <v>6.2500000000000027</v>
       </c>
-      <c r="N52" s="22">
+      <c r="N52" s="19">
         <f t="shared" si="17"/>
         <v>937.50000000000057</v>
       </c>
@@ -3674,37 +3741,37 @@
       </c>
     </row>
     <row r="53" spans="6:15" x14ac:dyDescent="0.3">
-      <c r="F53" s="23">
+      <c r="F53" s="20">
         <v>-3.6744186046511631</v>
       </c>
-      <c r="G53" s="21" t="s">
+      <c r="G53" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="H53" s="22">
+      <c r="H53" s="19">
         <f>-$F$53*H52+H47</f>
         <v>0</v>
       </c>
-      <c r="I53" s="22">
+      <c r="I53" s="19">
         <f>-$F$53*I52+I47</f>
         <v>0</v>
       </c>
-      <c r="J53" s="22">
+      <c r="J53" s="19">
         <f t="shared" ref="J53:N53" si="18">-$F$53*J52+J47</f>
         <v>9.8750000000000036</v>
       </c>
-      <c r="K53" s="22">
+      <c r="K53" s="19">
         <f t="shared" si="18"/>
         <v>7.4999999999999973</v>
       </c>
-      <c r="L53" s="22">
+      <c r="L53" s="19">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="M53" s="22">
+      <c r="M53" s="19">
         <f t="shared" si="18"/>
         <v>22.500000000000011</v>
       </c>
-      <c r="N53" s="22">
+      <c r="N53" s="19">
         <f t="shared" si="18"/>
         <v>30975</v>
       </c>
@@ -3748,6 +3815,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="A1:V1"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B22:E22"/>
     <mergeCell ref="B30:E30"/>
     <mergeCell ref="B31:E31"/>
     <mergeCell ref="B24:E24"/>
@@ -3756,14 +3829,515 @@
     <mergeCell ref="B27:E27"/>
     <mergeCell ref="B28:E28"/>
     <mergeCell ref="B29:E29"/>
-    <mergeCell ref="A1:V1"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B23:E23"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CC84B98-40A2-4DE3-BFC9-E1CF9534D87C}">
+  <dimension ref="A1:M22"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.77734375" customWidth="1"/>
+    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="10" width="10.77734375" customWidth="1"/>
+    <col min="12" max="12" width="3.77734375" customWidth="1"/>
+    <col min="13" max="13" width="31" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="3.77734375" customWidth="1"/>
+    <col min="16" max="16" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="15" x14ac:dyDescent="0.3">
+      <c r="A1" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+    </row>
+    <row r="3" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="J3" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="M3" s="11"/>
+    </row>
+    <row r="4" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="33">
+        <v>1</v>
+      </c>
+      <c r="F4" s="34">
+        <v>1</v>
+      </c>
+      <c r="G4" s="33">
+        <v>1</v>
+      </c>
+      <c r="H4" s="33">
+        <v>0</v>
+      </c>
+      <c r="I4" s="33">
+        <v>0</v>
+      </c>
+      <c r="J4" s="33">
+        <v>6</v>
+      </c>
+      <c r="K4">
+        <f>J4/F4</f>
+        <v>6</v>
+      </c>
+      <c r="M4" s="11"/>
+    </row>
+    <row r="5" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="33">
+        <v>5</v>
+      </c>
+      <c r="F5" s="34">
+        <v>9</v>
+      </c>
+      <c r="G5" s="33">
+        <v>0</v>
+      </c>
+      <c r="H5" s="33">
+        <v>1</v>
+      </c>
+      <c r="I5" s="33">
+        <v>0</v>
+      </c>
+      <c r="J5" s="33">
+        <v>45</v>
+      </c>
+      <c r="K5">
+        <f>J5/F5</f>
+        <v>5</v>
+      </c>
+      <c r="M5" s="11"/>
+    </row>
+    <row r="6" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E6" s="34">
+        <v>0</v>
+      </c>
+      <c r="F6" s="34">
+        <v>1</v>
+      </c>
+      <c r="G6" s="34">
+        <v>0</v>
+      </c>
+      <c r="H6" s="34">
+        <v>0</v>
+      </c>
+      <c r="I6" s="34">
+        <v>1</v>
+      </c>
+      <c r="J6" s="34">
+        <v>3</v>
+      </c>
+      <c r="K6">
+        <f>J6/F6</f>
+        <v>3</v>
+      </c>
+      <c r="M6" s="15"/>
+    </row>
+    <row r="7" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="33">
+        <v>-5</v>
+      </c>
+      <c r="F7" s="34">
+        <v>-8</v>
+      </c>
+      <c r="G7" s="33">
+        <v>0</v>
+      </c>
+      <c r="H7" s="33">
+        <v>0</v>
+      </c>
+      <c r="I7" s="33">
+        <v>0</v>
+      </c>
+      <c r="J7" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="32"/>
+      <c r="M8" s="11"/>
+    </row>
+    <row r="9" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="11"/>
+      <c r="D9" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="G9" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="H9" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="I9" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="J9" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="M9" s="11"/>
+    </row>
+    <row r="10" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="11"/>
+      <c r="C10" s="34">
+        <v>1</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="34">
+        <v>1</v>
+      </c>
+      <c r="F10" s="34">
+        <v>0</v>
+      </c>
+      <c r="G10" s="34">
+        <v>1</v>
+      </c>
+      <c r="H10" s="34">
+        <v>0</v>
+      </c>
+      <c r="I10" s="34">
+        <v>-1</v>
+      </c>
+      <c r="J10" s="34">
+        <v>3</v>
+      </c>
+      <c r="K10" s="36">
+        <f>J10/E10</f>
+        <v>3</v>
+      </c>
+      <c r="M10" s="11"/>
+    </row>
+    <row r="11" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="11"/>
+      <c r="C11" s="34">
+        <v>5</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="34">
+        <v>5</v>
+      </c>
+      <c r="F11" s="33">
+        <v>0</v>
+      </c>
+      <c r="G11" s="33">
+        <v>0</v>
+      </c>
+      <c r="H11" s="33">
+        <v>1</v>
+      </c>
+      <c r="I11" s="33">
+        <v>-9</v>
+      </c>
+      <c r="J11" s="33">
+        <v>18</v>
+      </c>
+      <c r="K11" s="36">
+        <f t="shared" ref="K11:K12" si="0">J11/E11</f>
+        <v>3.6</v>
+      </c>
+      <c r="M11" s="11"/>
+    </row>
+    <row r="12" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="11"/>
+      <c r="C12" s="34">
+        <v>0</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" s="34">
+        <v>0</v>
+      </c>
+      <c r="F12" s="33">
+        <v>1</v>
+      </c>
+      <c r="G12" s="33">
+        <v>0</v>
+      </c>
+      <c r="H12" s="33">
+        <v>0</v>
+      </c>
+      <c r="I12" s="33">
+        <v>1</v>
+      </c>
+      <c r="J12" s="33">
+        <v>3</v>
+      </c>
+      <c r="K12" s="36"/>
+    </row>
+    <row r="13" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="11"/>
+      <c r="C13" s="34">
+        <v>-5</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="34">
+        <v>-5</v>
+      </c>
+      <c r="F13" s="33">
+        <v>0</v>
+      </c>
+      <c r="G13" s="33">
+        <v>0</v>
+      </c>
+      <c r="H13" s="33">
+        <v>0</v>
+      </c>
+      <c r="I13" s="33">
+        <v>8</v>
+      </c>
+      <c r="J13" s="33">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C14" s="10"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="32"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C15" s="10"/>
+      <c r="D15" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="F15" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="G15" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="H15" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="I15" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="J15" s="31" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C16" s="10"/>
+      <c r="D16" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E16" s="33">
+        <v>1</v>
+      </c>
+      <c r="F16" s="33">
+        <v>0</v>
+      </c>
+      <c r="G16" s="33">
+        <v>1</v>
+      </c>
+      <c r="H16" s="33">
+        <v>0</v>
+      </c>
+      <c r="I16" s="33">
+        <v>-1</v>
+      </c>
+      <c r="J16" s="33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C17" s="10"/>
+      <c r="D17" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="33">
+        <v>0</v>
+      </c>
+      <c r="F17" s="33">
+        <v>0</v>
+      </c>
+      <c r="G17" s="33">
+        <v>-5</v>
+      </c>
+      <c r="H17" s="33">
+        <v>1</v>
+      </c>
+      <c r="I17" s="33">
+        <v>-4</v>
+      </c>
+      <c r="J17" s="33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C18" s="10"/>
+      <c r="D18" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E18" s="33">
+        <v>0</v>
+      </c>
+      <c r="F18" s="33">
+        <v>1</v>
+      </c>
+      <c r="G18" s="33">
+        <v>0</v>
+      </c>
+      <c r="H18" s="33">
+        <v>0</v>
+      </c>
+      <c r="I18" s="33">
+        <v>1</v>
+      </c>
+      <c r="J18" s="33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C19" s="10"/>
+      <c r="D19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="33">
+        <v>0</v>
+      </c>
+      <c r="F19" s="33">
+        <v>0</v>
+      </c>
+      <c r="G19" s="33">
+        <v>5</v>
+      </c>
+      <c r="H19" s="33">
+        <v>0</v>
+      </c>
+      <c r="I19" s="33">
+        <v>3</v>
+      </c>
+      <c r="J19" s="33">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="3:10" ht="18" x14ac:dyDescent="0.35">
+      <c r="C21" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="37" t="s">
+        <v>127</v>
+      </c>
+      <c r="E21" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="F21" s="37" t="s">
+        <v>128</v>
+      </c>
+      <c r="G21" s="16"/>
+    </row>
+    <row r="22" spans="3:10" ht="18" x14ac:dyDescent="0.35">
+      <c r="C22" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="E22" s="37" t="s">
+        <v>130</v>
+      </c>
+      <c r="F22" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="G22" s="37" t="s">
+        <v>128</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:M1"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>